--- a/ImporterCSV/test.xlsx
+++ b/ImporterCSV/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\ImplantationAndroid\ImporterCSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EDCF22-763B-489A-9DAA-BC8FACEB7029}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C824D5-562D-4C22-BC80-1A4BDA3A72D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B654E125-5C88-42FE-A815-ACEF66A6EE9D}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B654E125-5C88-42FE-A815-ACEF66A6EE9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,24 +33,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>A1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Prénom</t>
+  </si>
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>Numéro Client</t>
+  </si>
+  <si>
+    <t>Titre</t>
+  </si>
+  <si>
+    <t>Inventaire</t>
+  </si>
+  <si>
+    <t>Concession</t>
+  </si>
+  <si>
+    <t>L'étranger</t>
+  </si>
+  <si>
+    <t>Bourque</t>
+  </si>
+  <si>
+    <t>Kim</t>
   </si>
 </sst>
 </file>
@@ -402,36 +411,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A958F0B5-5130-4F3A-951C-5BC123284EF3}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>59</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
+      <c r="C2">
+        <v>98</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/ImporterCSV/test.xlsx
+++ b/ImporterCSV/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\ImplantationAndroid\ImporterCSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C824D5-562D-4C22-BC80-1A4BDA3A72D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB421235-BB2D-45B1-A212-1BAB26C93E9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B654E125-5C88-42FE-A815-ACEF66A6EE9D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B654E125-5C88-42FE-A815-ACEF66A6EE9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Prénom</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Kim</t>
+  </si>
+  <si>
+    <t>qweqwe</t>
   </si>
 </sst>
 </file>
@@ -411,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A958F0B5-5130-4F3A-951C-5BC123284EF3}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,6 +474,20 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ImporterCSV/test.xlsx
+++ b/ImporterCSV/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\ImplantationAndroid\ImporterCSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB421235-BB2D-45B1-A212-1BAB26C93E9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2E1CA8-3760-4E8B-AA89-01320C4B9BBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B654E125-5C88-42FE-A815-ACEF66A6EE9D}"/>
   </bookViews>
@@ -417,14 +417,14 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
@@ -479,7 +479,7 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>3032</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>

--- a/ImporterCSV/test.xlsx
+++ b/ImporterCSV/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\ImplantationAndroid\ImporterCSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2E1CA8-3760-4E8B-AA89-01320C4B9BBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CBF9BB-2803-4538-9511-B0F4515445F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B654E125-5C88-42FE-A815-ACEF66A6EE9D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Prénom</t>
   </si>
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A958F0B5-5130-4F3A-951C-5BC123284EF3}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,6 +488,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>89</v>
+      </c>
+      <c r="C4">
+        <v>3032</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ImporterCSV/test.xlsx
+++ b/ImporterCSV/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\ImplantationAndroid\ImporterCSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CBF9BB-2803-4538-9511-B0F4515445F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E864904-914F-46D4-B6BA-2535AE4973D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B654E125-5C88-42FE-A815-ACEF66A6EE9D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Prénom</t>
   </si>
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A958F0B5-5130-4F3A-951C-5BC123284EF3}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,6 +502,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>90</v>
+      </c>
+      <c r="C5">
+        <v>3032</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ImporterCSV/test.xlsx
+++ b/ImporterCSV/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\ImplantationAndroid\ImporterCSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E864904-914F-46D4-B6BA-2535AE4973D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EB2453-8CD1-4A75-99E9-4207CE718001}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B654E125-5C88-42FE-A815-ACEF66A6EE9D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B654E125-5C88-42FE-A815-ACEF66A6EE9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,7 +476,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>12</v>
+        <v>24386</v>
       </c>
       <c r="C3">
         <v>3032</v>
@@ -485,12 +485,12 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>89</v>
+        <v>24385</v>
       </c>
       <c r="C4">
         <v>3032</v>
@@ -499,12 +499,12 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>90</v>
+        <v>24384</v>
       </c>
       <c r="C5">
         <v>3032</v>
@@ -513,10 +513,11 @@
         <v>9</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>3514</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ImporterCSV/test.xlsx
+++ b/ImporterCSV/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\ImplantationAndroid\ImporterCSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EB2453-8CD1-4A75-99E9-4207CE718001}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2861777-B5E6-47A2-B183-EDCAD85D7C78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B654E125-5C88-42FE-A815-ACEF66A6EE9D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B654E125-5C88-42FE-A815-ACEF66A6EE9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Prénom</t>
   </si>
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A958F0B5-5130-4F3A-951C-5BC123284EF3}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,6 +516,29 @@
         <v>3514</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>59</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>98</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ImporterCSV/test.xlsx
+++ b/ImporterCSV/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\ImplantationAndroid\ImporterCSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2861777-B5E6-47A2-B183-EDCAD85D7C78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90ED598E-EA17-40E0-B99F-BD0F93655165}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B654E125-5C88-42FE-A815-ACEF66A6EE9D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Prénom</t>
   </si>
@@ -62,7 +62,55 @@
     <t>Kim</t>
   </si>
   <si>
-    <t>qweqwe</t>
+    <t>Communication et représentation commerciale 3e éd.</t>
+  </si>
+  <si>
+    <t>Trudel</t>
+  </si>
+  <si>
+    <t>Joshua</t>
+  </si>
+  <si>
+    <t>Manuel d'épict`ete</t>
+  </si>
+  <si>
+    <t>Lefebvre</t>
+  </si>
+  <si>
+    <t>Laurie-Ann</t>
+  </si>
+  <si>
+    <t>Les liaisons dangeureuses</t>
+  </si>
+  <si>
+    <t>Odyssée</t>
+  </si>
+  <si>
+    <t>Ph`edre</t>
+  </si>
+  <si>
+    <t>Déry</t>
+  </si>
+  <si>
+    <t>Mélissa</t>
+  </si>
+  <si>
+    <t>Manon des sources</t>
+  </si>
+  <si>
+    <t>Toupin</t>
+  </si>
+  <si>
+    <t>Cindy</t>
+  </si>
+  <si>
+    <t>Cyrano de Bergerac</t>
+  </si>
+  <si>
+    <t>Tremblay</t>
+  </si>
+  <si>
+    <t>Alexanne</t>
   </si>
 </sst>
 </file>
@@ -414,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A958F0B5-5130-4F3A-951C-5BC123284EF3}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,67 +524,163 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>24386</v>
+        <v>186</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>3032</v>
+        <v>529</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3">
-        <v>3514</v>
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>24385</v>
+        <v>279</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>3032</v>
+        <v>217</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>3514</v>
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>24384</v>
+        <v>280</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>3032</v>
+        <v>163</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>3514</v>
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>59</v>
+        <v>289</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>364</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>417</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>395</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>535</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1504</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>394</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
         <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/ImporterCSV/test.xlsx
+++ b/ImporterCSV/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\ImplantationAndroid\ImporterCSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90ED598E-EA17-40E0-B99F-BD0F93655165}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60C4AFE-53D9-4A9A-A10A-8A5006BE9C6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B654E125-5C88-42FE-A815-ACEF66A6EE9D}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B654E125-5C88-42FE-A815-ACEF66A6EE9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Prénom</t>
   </si>
@@ -53,64 +53,13 @@
     <t>Concession</t>
   </si>
   <si>
-    <t>L'étranger</t>
-  </si>
-  <si>
-    <t>Bourque</t>
-  </si>
-  <si>
-    <t>Kim</t>
-  </si>
-  <si>
-    <t>Communication et représentation commerciale 3e éd.</t>
-  </si>
-  <si>
-    <t>Trudel</t>
-  </si>
-  <si>
-    <t>Joshua</t>
-  </si>
-  <si>
-    <t>Manuel d'épict`ete</t>
-  </si>
-  <si>
-    <t>Lefebvre</t>
-  </si>
-  <si>
-    <t>Laurie-Ann</t>
-  </si>
-  <si>
-    <t>Les liaisons dangeureuses</t>
-  </si>
-  <si>
-    <t>Odyssée</t>
-  </si>
-  <si>
-    <t>Ph`edre</t>
-  </si>
-  <si>
-    <t>Déry</t>
-  </si>
-  <si>
-    <t>Mélissa</t>
-  </si>
-  <si>
-    <t>Manon des sources</t>
-  </si>
-  <si>
-    <t>Toupin</t>
-  </si>
-  <si>
-    <t>Cindy</t>
-  </si>
-  <si>
-    <t>Cyrano de Bergerac</t>
-  </si>
-  <si>
-    <t>Tremblay</t>
-  </si>
-  <si>
-    <t>Alexanne</t>
+    <t>Le bonheur, désespérément</t>
+  </si>
+  <si>
+    <t>Jean</t>
+  </si>
+  <si>
+    <t>Marie-Soleil</t>
   </si>
 </sst>
 </file>
@@ -462,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A958F0B5-5130-4F3A-951C-5BC123284EF3}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,186 +450,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>59</v>
+        <v>1603</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>98</v>
+        <v>259</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>186</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>529</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>279</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>217</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>280</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>163</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>289</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>364</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>417</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>395</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>535</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1504</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>394</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/ImporterCSV/test.xlsx
+++ b/ImporterCSV/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\ImplantationAndroid\ImporterCSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60C4AFE-53D9-4A9A-A10A-8A5006BE9C6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFFE40A-D424-4411-B065-53B2DEBA61E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B654E125-5C88-42FE-A815-ACEF66A6EE9D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B654E125-5C88-42FE-A815-ACEF66A6EE9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="232">
   <si>
     <t>Prénom</t>
   </si>
@@ -60,6 +60,675 @@
   </si>
   <si>
     <t>Marie-Soleil</t>
+  </si>
+  <si>
+    <t>L'étranger</t>
+  </si>
+  <si>
+    <t>Bourque</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Communication et représentation commerciale 3e éd.</t>
+  </si>
+  <si>
+    <t>Trudel</t>
+  </si>
+  <si>
+    <t>Joshua</t>
+  </si>
+  <si>
+    <t>Manuel d'épict`ete</t>
+  </si>
+  <si>
+    <t>Lefebvre</t>
+  </si>
+  <si>
+    <t>Laurie-Ann</t>
+  </si>
+  <si>
+    <t>Les liaisons dangeureuses</t>
+  </si>
+  <si>
+    <t>Odyssée</t>
+  </si>
+  <si>
+    <t>Ph`edre</t>
+  </si>
+  <si>
+    <t>Déry</t>
+  </si>
+  <si>
+    <t>Mélissa</t>
+  </si>
+  <si>
+    <t>Manon des sources</t>
+  </si>
+  <si>
+    <t>Toupin</t>
+  </si>
+  <si>
+    <t>Cindy</t>
+  </si>
+  <si>
+    <t>Cyrano de Bergerac</t>
+  </si>
+  <si>
+    <t>Tremblay</t>
+  </si>
+  <si>
+    <t>Alexanne</t>
+  </si>
+  <si>
+    <t>Balzac et la Petite Tailleuse chinoise</t>
+  </si>
+  <si>
+    <t>Germinal</t>
+  </si>
+  <si>
+    <t>Les québécois et l'anglais</t>
+  </si>
+  <si>
+    <t>Frankenstein ou le prométhée moderne</t>
+  </si>
+  <si>
+    <t>La télévision `a l'`ere d'internet</t>
+  </si>
+  <si>
+    <t>Marie Calumet</t>
+  </si>
+  <si>
+    <t>Les précieuses ridicules</t>
+  </si>
+  <si>
+    <t>Dictionnaire illustré des termes de médecine</t>
+  </si>
+  <si>
+    <t>Massicotte</t>
+  </si>
+  <si>
+    <t>Carolann</t>
+  </si>
+  <si>
+    <t>La sociologie</t>
+  </si>
+  <si>
+    <t>Duguay</t>
+  </si>
+  <si>
+    <t>Sophie</t>
+  </si>
+  <si>
+    <t>Le marketing en action</t>
+  </si>
+  <si>
+    <t>De la providence</t>
+  </si>
+  <si>
+    <t>Renaud</t>
+  </si>
+  <si>
+    <t>Jany</t>
+  </si>
+  <si>
+    <t>Épicure Lettres, maximes, sentences</t>
+  </si>
+  <si>
+    <t>De la démocratie en Amérique</t>
+  </si>
+  <si>
+    <t>Éthique</t>
+  </si>
+  <si>
+    <t>Relations interculturelles</t>
+  </si>
+  <si>
+    <t>Dieu et nous seuls le pouvons</t>
+  </si>
+  <si>
+    <t>Caya</t>
+  </si>
+  <si>
+    <t>Marc-André</t>
+  </si>
+  <si>
+    <t>Le journal d'un homme de trop</t>
+  </si>
+  <si>
+    <t>L'île des esclaves</t>
+  </si>
+  <si>
+    <t>LEs po`etes symbolistes</t>
+  </si>
+  <si>
+    <t>Pepin</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Encyclopédie ou dictionnaire raisonné des sciences, des arts et des métiers</t>
+  </si>
+  <si>
+    <t>Soie</t>
+  </si>
+  <si>
+    <t>Prosper Mérimée Carmen</t>
+  </si>
+  <si>
+    <t>St-Arneault</t>
+  </si>
+  <si>
+    <t>Joanny</t>
+  </si>
+  <si>
+    <t>Le séjour de mon enfant `a l'hôpital</t>
+  </si>
+  <si>
+    <t>Lavigueur</t>
+  </si>
+  <si>
+    <t>Karlyne</t>
+  </si>
+  <si>
+    <t>Famille et société</t>
+  </si>
+  <si>
+    <t>Les fourberies de Scapin</t>
+  </si>
+  <si>
+    <t>Messier</t>
+  </si>
+  <si>
+    <t>Janie</t>
+  </si>
+  <si>
+    <t>Le mythe de Sisyphe</t>
+  </si>
+  <si>
+    <t>Po`emes Saturniens</t>
+  </si>
+  <si>
+    <t>loignon</t>
+  </si>
+  <si>
+    <t>Vanessa</t>
+  </si>
+  <si>
+    <t>Windowa on the world</t>
+  </si>
+  <si>
+    <t>Les Bonnes</t>
+  </si>
+  <si>
+    <t>La curée</t>
+  </si>
+  <si>
+    <t>Dufresne</t>
+  </si>
+  <si>
+    <t>Marie-Ange</t>
+  </si>
+  <si>
+    <t>Atala et René</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Léonie</t>
+  </si>
+  <si>
+    <t>Sur la route</t>
+  </si>
+  <si>
+    <t>C,est pas moi, je le jure!</t>
+  </si>
+  <si>
+    <t>Girard Lemire</t>
+  </si>
+  <si>
+    <t>Magalie</t>
+  </si>
+  <si>
+    <t>Apologie de socrate</t>
+  </si>
+  <si>
+    <t>Constantin</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>Mal élevé</t>
+  </si>
+  <si>
+    <t>Dom juan</t>
+  </si>
+  <si>
+    <t>Beaulac</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>Les portes tournante</t>
+  </si>
+  <si>
+    <t>Faucher Bourgault</t>
+  </si>
+  <si>
+    <t>Julie</t>
+  </si>
+  <si>
+    <t>Le spleen de Paris</t>
+  </si>
+  <si>
+    <t>Demers</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>99 Francs</t>
+  </si>
+  <si>
+    <t>Petit traité de l'argumentation</t>
+  </si>
+  <si>
+    <t>Marianne</t>
+  </si>
+  <si>
+    <t>La république</t>
+  </si>
+  <si>
+    <t>Nouvelles fantastiques</t>
+  </si>
+  <si>
+    <t>Un ange cornu avec des ailes de tôle</t>
+  </si>
+  <si>
+    <t>Marceau</t>
+  </si>
+  <si>
+    <t>Denis</t>
+  </si>
+  <si>
+    <t>La fiancée du Nil</t>
+  </si>
+  <si>
+    <t>Beauchesne</t>
+  </si>
+  <si>
+    <t>Nikolas</t>
+  </si>
+  <si>
+    <t>Les caprices de Marianne</t>
+  </si>
+  <si>
+    <t>Roberge-Viau</t>
+  </si>
+  <si>
+    <t>Amélie</t>
+  </si>
+  <si>
+    <t>Herder: Histoire et cultures</t>
+  </si>
+  <si>
+    <t>Po`etes symbolistes</t>
+  </si>
+  <si>
+    <t>La dame dans l'auto avec des lunettes et un fusil</t>
+  </si>
+  <si>
+    <t>Gorgias - Platon</t>
+  </si>
+  <si>
+    <t>Boucher</t>
+  </si>
+  <si>
+    <t>Vicky</t>
+  </si>
+  <si>
+    <t>Idée d'une histoire universelle au point de vue cosmopolitique</t>
+  </si>
+  <si>
+    <t>Mathieu Caron</t>
+  </si>
+  <si>
+    <t>Audrey</t>
+  </si>
+  <si>
+    <t>Boisvert</t>
+  </si>
+  <si>
+    <t>Récits réalistes et fantastiques</t>
+  </si>
+  <si>
+    <t>La peste</t>
+  </si>
+  <si>
+    <t>Platon Protagoras, Euthyd`eme, gorgia etc..</t>
+  </si>
+  <si>
+    <t>Larivi`ere Beaudoin</t>
+  </si>
+  <si>
+    <t>Meggie</t>
+  </si>
+  <si>
+    <t>Le médecin malgré lui</t>
+  </si>
+  <si>
+    <t>Sirois</t>
+  </si>
+  <si>
+    <t>Phaneuf</t>
+  </si>
+  <si>
+    <t>Mathieu</t>
+  </si>
+  <si>
+    <t>Chillis-Rivard</t>
+  </si>
+  <si>
+    <t>Claudia</t>
+  </si>
+  <si>
+    <t>Cheech</t>
+  </si>
+  <si>
+    <t>Vigneault</t>
+  </si>
+  <si>
+    <t>Kamie</t>
+  </si>
+  <si>
+    <t>Une partie de campagne et autres contes</t>
+  </si>
+  <si>
+    <t>Huot</t>
+  </si>
+  <si>
+    <t>Paméla</t>
+  </si>
+  <si>
+    <t>Progetto Italiano</t>
+  </si>
+  <si>
+    <t>Hotte</t>
+  </si>
+  <si>
+    <t>Marie-Joëlle</t>
+  </si>
+  <si>
+    <t>Le colonel chabert</t>
+  </si>
+  <si>
+    <t>Cyrenne</t>
+  </si>
+  <si>
+    <t>Andréanne</t>
+  </si>
+  <si>
+    <t>Guilbert</t>
+  </si>
+  <si>
+    <t>Noémie</t>
+  </si>
+  <si>
+    <t>Huis clos suivi de Les mouches</t>
+  </si>
+  <si>
+    <t>Lettre `a Ménécée</t>
+  </si>
+  <si>
+    <t>Thibodeau</t>
+  </si>
+  <si>
+    <t>Anne</t>
+  </si>
+  <si>
+    <t>Eugénie Grandet</t>
+  </si>
+  <si>
+    <t>Baril</t>
+  </si>
+  <si>
+    <t>Catherine</t>
+  </si>
+  <si>
+    <t>Gagnon</t>
+  </si>
+  <si>
+    <t>Carl</t>
+  </si>
+  <si>
+    <t>La Curée</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>Gabri`ele</t>
+  </si>
+  <si>
+    <t>Deshaies</t>
+  </si>
+  <si>
+    <t>Andrée</t>
+  </si>
+  <si>
+    <t>Jay</t>
+  </si>
+  <si>
+    <t>Jules</t>
+  </si>
+  <si>
+    <t>Notre-Dame de Paris</t>
+  </si>
+  <si>
+    <t>Le malade imaginaire</t>
+  </si>
+  <si>
+    <t>Vallée</t>
+  </si>
+  <si>
+    <t>Francis</t>
+  </si>
+  <si>
+    <t>Roy</t>
+  </si>
+  <si>
+    <t>Aristote sur la justice</t>
+  </si>
+  <si>
+    <t>Épicure : Lettres, maximes et autres textes</t>
+  </si>
+  <si>
+    <t>Vertefeuille</t>
+  </si>
+  <si>
+    <t>Francoeur</t>
+  </si>
+  <si>
+    <t>Josiane</t>
+  </si>
+  <si>
+    <t>Apologie de Socrate Citron</t>
+  </si>
+  <si>
+    <t>Gendron</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Les mains sales</t>
+  </si>
+  <si>
+    <t>Bérénice</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Valérie</t>
+  </si>
+  <si>
+    <t>Lemay</t>
+  </si>
+  <si>
+    <t>Anthologie de la littérature du moyen âge `a 1850</t>
+  </si>
+  <si>
+    <t>Leclair- Lavoie</t>
+  </si>
+  <si>
+    <t>Guillaume</t>
+  </si>
+  <si>
+    <t>Comment je suis devenu stupide</t>
+  </si>
+  <si>
+    <t>Gélinas</t>
+  </si>
+  <si>
+    <t>Vincent</t>
+  </si>
+  <si>
+    <t>Discours de la méthode</t>
+  </si>
+  <si>
+    <t>Michaud</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Lauture</t>
+  </si>
+  <si>
+    <t>Adrien</t>
+  </si>
+  <si>
+    <t>Le Misanthrope</t>
+  </si>
+  <si>
+    <t>Abdufnow</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Apologie de socrate Criton Phédon</t>
+  </si>
+  <si>
+    <t>Bérubé-Gélinas</t>
+  </si>
+  <si>
+    <t>Dannick</t>
+  </si>
+  <si>
+    <t>Rocheleau</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Anthologie tome 2 2e Édition</t>
+  </si>
+  <si>
+    <t>Desrochers</t>
+  </si>
+  <si>
+    <t>Keven</t>
+  </si>
+  <si>
+    <t>Brunelle</t>
+  </si>
+  <si>
+    <t>Allah n'est pas obligé</t>
+  </si>
+  <si>
+    <t>Skjerven</t>
+  </si>
+  <si>
+    <t>Érika</t>
+  </si>
+  <si>
+    <t>D'un référendum `a l'autre</t>
+  </si>
+  <si>
+    <t>Lavoie</t>
+  </si>
+  <si>
+    <t>Raphaëlle</t>
+  </si>
+  <si>
+    <t>Fanfan</t>
+  </si>
+  <si>
+    <t>Mongrain</t>
+  </si>
+  <si>
+    <t>Genevi`eve</t>
+  </si>
+  <si>
+    <t>Bergeron</t>
+  </si>
+  <si>
+    <t>Axelle</t>
+  </si>
+  <si>
+    <t>Le fou de l'île</t>
+  </si>
+  <si>
+    <t>Le cris des oiseaux fous</t>
+  </si>
+  <si>
+    <t>Concerto `a la mémoire d'un ange</t>
+  </si>
+  <si>
+    <t>L'art de vivre: Stoicisme et épicurisme</t>
+  </si>
+  <si>
+    <t>de Montigny</t>
+  </si>
+  <si>
+    <t>Célia</t>
+  </si>
+  <si>
+    <t>Pineault</t>
+  </si>
+  <si>
+    <t>Laurie</t>
+  </si>
+  <si>
+    <t>Chercher le vent</t>
+  </si>
+  <si>
+    <t>Mayonnaise</t>
+  </si>
+  <si>
+    <t>Montour</t>
+  </si>
+  <si>
+    <t>Nicolas</t>
+  </si>
+  <si>
+    <t>La descendance de l'homme et la sélection sexuelle</t>
+  </si>
+  <si>
+    <t>AGECTR</t>
+  </si>
+  <si>
+    <t>L'avaleur de sable</t>
+  </si>
+  <si>
+    <t>Tristan et Iseut</t>
   </si>
 </sst>
 </file>
@@ -411,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A958F0B5-5130-4F3A-951C-5BC123284EF3}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="I10" activeCellId="1" sqref="L11 I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,25 +1119,4234 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>59</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>98</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>186</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>529</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>279</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>217</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>280</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>163</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>289</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>364</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>417</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>395</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>535</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1504</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>394</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1505</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>139</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1506</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>167</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1602</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1045</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>1603</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
         <v>259</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D13" t="s">
         <v>6</v>
       </c>
-      <c r="E2">
+      <c r="E13">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F13" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G13" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1605</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>426</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1608</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1027</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1609</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1052</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1611</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>69</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1814</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>201</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1830</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>289</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1841</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>353</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1865</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>158</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1868</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>216</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1869</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>175</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1870</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>150</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1871</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1082</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1874</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>64</v>
+      </c>
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26">
+        <v>15</v>
+      </c>
+      <c r="F26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1875</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>227</v>
+      </c>
+      <c r="D27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27">
+        <v>15</v>
+      </c>
+      <c r="F27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1880</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>172</v>
+      </c>
+      <c r="D28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28">
+        <v>15</v>
+      </c>
+      <c r="F28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1932</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>348</v>
+      </c>
+      <c r="D29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29">
+        <v>19</v>
+      </c>
+      <c r="F29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1933</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>97</v>
+      </c>
+      <c r="D30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30">
+        <v>19</v>
+      </c>
+      <c r="F30" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1934</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>141</v>
+      </c>
+      <c r="D31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1956</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>245</v>
+      </c>
+      <c r="D32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32">
+        <v>21</v>
+      </c>
+      <c r="F32" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1996</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33">
+        <v>22</v>
+      </c>
+      <c r="F33" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1997</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>511</v>
+      </c>
+      <c r="D34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34">
+        <v>22</v>
+      </c>
+      <c r="F34" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2009</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>384</v>
+      </c>
+      <c r="D35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35">
+        <v>23</v>
+      </c>
+      <c r="F35" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2011</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>481</v>
+      </c>
+      <c r="D36" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36">
+        <v>23</v>
+      </c>
+      <c r="F36" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2023</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>145</v>
+      </c>
+      <c r="D37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37">
+        <v>24</v>
+      </c>
+      <c r="F37" t="s">
+        <v>72</v>
+      </c>
+      <c r="G37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2024</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>86</v>
+      </c>
+      <c r="D38" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38">
+        <v>24</v>
+      </c>
+      <c r="F38" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2025</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>98</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39">
+        <v>24</v>
+      </c>
+      <c r="F39" t="s">
+        <v>72</v>
+      </c>
+      <c r="G39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2027</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>134</v>
+      </c>
+      <c r="D40" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40">
+        <v>24</v>
+      </c>
+      <c r="F40" t="s">
+        <v>72</v>
+      </c>
+      <c r="G40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2044</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>133</v>
+      </c>
+      <c r="D41" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41">
+        <v>26</v>
+      </c>
+      <c r="F41" t="s">
+        <v>77</v>
+      </c>
+      <c r="G41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2045</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>387</v>
+      </c>
+      <c r="D42" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42">
+        <v>26</v>
+      </c>
+      <c r="F42" t="s">
+        <v>77</v>
+      </c>
+      <c r="G42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2047</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>417</v>
+      </c>
+      <c r="D43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43">
+        <v>26</v>
+      </c>
+      <c r="F43" t="s">
+        <v>77</v>
+      </c>
+      <c r="G43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2055</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>139</v>
+      </c>
+      <c r="D44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44">
+        <v>27</v>
+      </c>
+      <c r="F44" t="s">
+        <v>80</v>
+      </c>
+      <c r="G44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2057</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>107</v>
+      </c>
+      <c r="D45" t="s">
+        <v>82</v>
+      </c>
+      <c r="E45">
+        <v>27</v>
+      </c>
+      <c r="F45" t="s">
+        <v>80</v>
+      </c>
+      <c r="G45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2058</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>167</v>
+      </c>
+      <c r="D46" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46">
+        <v>27</v>
+      </c>
+      <c r="F46" t="s">
+        <v>80</v>
+      </c>
+      <c r="G46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2060</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>490</v>
+      </c>
+      <c r="D47" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47">
+        <v>27</v>
+      </c>
+      <c r="F47" t="s">
+        <v>80</v>
+      </c>
+      <c r="G47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2062</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>227</v>
+      </c>
+      <c r="D48" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48">
+        <v>27</v>
+      </c>
+      <c r="F48" t="s">
+        <v>80</v>
+      </c>
+      <c r="G48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2065</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>245</v>
+      </c>
+      <c r="D49" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49">
+        <v>28</v>
+      </c>
+      <c r="F49" t="s">
+        <v>84</v>
+      </c>
+      <c r="G49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2067</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>348</v>
+      </c>
+      <c r="D50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50">
+        <v>28</v>
+      </c>
+      <c r="F50" t="s">
+        <v>84</v>
+      </c>
+      <c r="G50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2072</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>459</v>
+      </c>
+      <c r="D51" t="s">
+        <v>86</v>
+      </c>
+      <c r="E51">
+        <v>29</v>
+      </c>
+      <c r="F51" t="s">
+        <v>87</v>
+      </c>
+      <c r="G51" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2074</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>489</v>
+      </c>
+      <c r="D52" t="s">
+        <v>89</v>
+      </c>
+      <c r="E52">
+        <v>29</v>
+      </c>
+      <c r="F52" t="s">
+        <v>87</v>
+      </c>
+      <c r="G52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2088</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>413</v>
+      </c>
+      <c r="D53" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53">
+        <v>31</v>
+      </c>
+      <c r="F53" t="s">
+        <v>91</v>
+      </c>
+      <c r="G53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2090</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>543</v>
+      </c>
+      <c r="D54" t="s">
+        <v>93</v>
+      </c>
+      <c r="E54">
+        <v>31</v>
+      </c>
+      <c r="F54" t="s">
+        <v>91</v>
+      </c>
+      <c r="G54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2120</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>167</v>
+      </c>
+      <c r="D55" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55">
+        <v>33</v>
+      </c>
+      <c r="F55" t="s">
+        <v>94</v>
+      </c>
+      <c r="G55" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2122</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>43</v>
+      </c>
+      <c r="D56" t="s">
+        <v>96</v>
+      </c>
+      <c r="E56">
+        <v>33</v>
+      </c>
+      <c r="F56" t="s">
+        <v>94</v>
+      </c>
+      <c r="G56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2131</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>43</v>
+      </c>
+      <c r="D57" t="s">
+        <v>96</v>
+      </c>
+      <c r="E57">
+        <v>34</v>
+      </c>
+      <c r="F57" t="s">
+        <v>97</v>
+      </c>
+      <c r="G57" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2132</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>387</v>
+      </c>
+      <c r="D58" t="s">
+        <v>79</v>
+      </c>
+      <c r="E58">
+        <v>34</v>
+      </c>
+      <c r="F58" t="s">
+        <v>97</v>
+      </c>
+      <c r="G58" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2135</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>87</v>
+      </c>
+      <c r="D59" t="s">
+        <v>99</v>
+      </c>
+      <c r="E59">
+        <v>34</v>
+      </c>
+      <c r="F59" t="s">
+        <v>97</v>
+      </c>
+      <c r="G59" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2139</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>460</v>
+      </c>
+      <c r="D60" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60">
+        <v>34</v>
+      </c>
+      <c r="F60" t="s">
+        <v>97</v>
+      </c>
+      <c r="G60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2147</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>465</v>
+      </c>
+      <c r="D61" t="s">
+        <v>100</v>
+      </c>
+      <c r="E61">
+        <v>34</v>
+      </c>
+      <c r="F61" t="s">
+        <v>97</v>
+      </c>
+      <c r="G61" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2162</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>139</v>
+      </c>
+      <c r="D62" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62">
+        <v>35</v>
+      </c>
+      <c r="F62" t="s">
+        <v>97</v>
+      </c>
+      <c r="G62" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2164</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>480</v>
+      </c>
+      <c r="D63" t="s">
+        <v>102</v>
+      </c>
+      <c r="E63">
+        <v>35</v>
+      </c>
+      <c r="F63" t="s">
+        <v>97</v>
+      </c>
+      <c r="G63" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2165</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>259</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64">
+        <v>35</v>
+      </c>
+      <c r="F64" t="s">
+        <v>97</v>
+      </c>
+      <c r="G64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2166</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>429</v>
+      </c>
+      <c r="D65" t="s">
+        <v>103</v>
+      </c>
+      <c r="E65">
+        <v>35</v>
+      </c>
+      <c r="F65" t="s">
+        <v>97</v>
+      </c>
+      <c r="G65" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2207</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>281</v>
+      </c>
+      <c r="D66" t="s">
+        <v>104</v>
+      </c>
+      <c r="E66">
+        <v>37</v>
+      </c>
+      <c r="F66" t="s">
+        <v>105</v>
+      </c>
+      <c r="G66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2210</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>64</v>
+      </c>
+      <c r="D67" t="s">
+        <v>50</v>
+      </c>
+      <c r="E67">
+        <v>37</v>
+      </c>
+      <c r="F67" t="s">
+        <v>105</v>
+      </c>
+      <c r="G67" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2215</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>429</v>
+      </c>
+      <c r="D68" t="s">
+        <v>103</v>
+      </c>
+      <c r="E68">
+        <v>37</v>
+      </c>
+      <c r="F68" t="s">
+        <v>105</v>
+      </c>
+      <c r="G68" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2290</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>187</v>
+      </c>
+      <c r="D69" t="s">
+        <v>107</v>
+      </c>
+      <c r="E69">
+        <v>39</v>
+      </c>
+      <c r="F69" t="s">
+        <v>108</v>
+      </c>
+      <c r="G69" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2294</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>260</v>
+      </c>
+      <c r="D70" t="s">
+        <v>110</v>
+      </c>
+      <c r="E70">
+        <v>40</v>
+      </c>
+      <c r="F70" t="s">
+        <v>111</v>
+      </c>
+      <c r="G70" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2296</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>157</v>
+      </c>
+      <c r="D71" t="s">
+        <v>113</v>
+      </c>
+      <c r="E71">
+        <v>40</v>
+      </c>
+      <c r="F71" t="s">
+        <v>111</v>
+      </c>
+      <c r="G71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2298</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>245</v>
+      </c>
+      <c r="D72" t="s">
+        <v>60</v>
+      </c>
+      <c r="E72">
+        <v>40</v>
+      </c>
+      <c r="F72" t="s">
+        <v>111</v>
+      </c>
+      <c r="G72" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>2299</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>396</v>
+      </c>
+      <c r="D73" t="s">
+        <v>114</v>
+      </c>
+      <c r="E73">
+        <v>40</v>
+      </c>
+      <c r="F73" t="s">
+        <v>111</v>
+      </c>
+      <c r="G73" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2302</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>127</v>
+      </c>
+      <c r="D74" t="s">
+        <v>115</v>
+      </c>
+      <c r="E74">
+        <v>40</v>
+      </c>
+      <c r="F74" t="s">
+        <v>111</v>
+      </c>
+      <c r="G74" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2338</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>453</v>
+      </c>
+      <c r="D75" t="s">
+        <v>116</v>
+      </c>
+      <c r="E75">
+        <v>42</v>
+      </c>
+      <c r="F75" t="s">
+        <v>117</v>
+      </c>
+      <c r="G75" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2353</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>124</v>
+      </c>
+      <c r="D76" t="s">
+        <v>119</v>
+      </c>
+      <c r="E76">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>120</v>
+      </c>
+      <c r="G76" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2355</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>157</v>
+      </c>
+      <c r="D77" t="s">
+        <v>113</v>
+      </c>
+      <c r="E77">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>120</v>
+      </c>
+      <c r="G77" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2381</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>417</v>
+      </c>
+      <c r="D78" t="s">
+        <v>20</v>
+      </c>
+      <c r="E78">
+        <v>45</v>
+      </c>
+      <c r="F78" t="s">
+        <v>122</v>
+      </c>
+      <c r="G78" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2382</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>479</v>
+      </c>
+      <c r="D79" t="s">
+        <v>123</v>
+      </c>
+      <c r="E79">
+        <v>45</v>
+      </c>
+      <c r="F79" t="s">
+        <v>122</v>
+      </c>
+      <c r="G79" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>2389</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>96</v>
+      </c>
+      <c r="D80" t="s">
+        <v>124</v>
+      </c>
+      <c r="E80">
+        <v>45</v>
+      </c>
+      <c r="F80" t="s">
+        <v>122</v>
+      </c>
+      <c r="G80" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2393</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>151</v>
+      </c>
+      <c r="D81" t="s">
+        <v>125</v>
+      </c>
+      <c r="E81">
+        <v>45</v>
+      </c>
+      <c r="F81" t="s">
+        <v>122</v>
+      </c>
+      <c r="G81" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2394</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>259</v>
+      </c>
+      <c r="D82" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82">
+        <v>45</v>
+      </c>
+      <c r="F82" t="s">
+        <v>122</v>
+      </c>
+      <c r="G82" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2409</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>259</v>
+      </c>
+      <c r="D83" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83">
+        <v>47</v>
+      </c>
+      <c r="F83" t="s">
+        <v>126</v>
+      </c>
+      <c r="G83" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2410</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>424</v>
+      </c>
+      <c r="D84" t="s">
+        <v>128</v>
+      </c>
+      <c r="E84">
+        <v>47</v>
+      </c>
+      <c r="F84" t="s">
+        <v>126</v>
+      </c>
+      <c r="G84" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2417</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>64</v>
+      </c>
+      <c r="D85" t="s">
+        <v>50</v>
+      </c>
+      <c r="E85">
+        <v>48</v>
+      </c>
+      <c r="F85" t="s">
+        <v>129</v>
+      </c>
+      <c r="G85" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2420</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>480</v>
+      </c>
+      <c r="D86" t="s">
+        <v>102</v>
+      </c>
+      <c r="E86">
+        <v>48</v>
+      </c>
+      <c r="F86" t="s">
+        <v>129</v>
+      </c>
+      <c r="G86" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>2422</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>465</v>
+      </c>
+      <c r="D87" t="s">
+        <v>100</v>
+      </c>
+      <c r="E87">
+        <v>48</v>
+      </c>
+      <c r="F87" t="s">
+        <v>129</v>
+      </c>
+      <c r="G87" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2471</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>489</v>
+      </c>
+      <c r="D88" t="s">
+        <v>89</v>
+      </c>
+      <c r="E88">
+        <v>50</v>
+      </c>
+      <c r="F88" t="s">
+        <v>130</v>
+      </c>
+      <c r="G88" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2477</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>387</v>
+      </c>
+      <c r="D89" t="s">
+        <v>79</v>
+      </c>
+      <c r="E89">
+        <v>51</v>
+      </c>
+      <c r="F89" t="s">
+        <v>132</v>
+      </c>
+      <c r="G89" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2478</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>417</v>
+      </c>
+      <c r="D90" t="s">
+        <v>20</v>
+      </c>
+      <c r="E90">
+        <v>51</v>
+      </c>
+      <c r="F90" t="s">
+        <v>132</v>
+      </c>
+      <c r="G90" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2485</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>1099</v>
+      </c>
+      <c r="D91" t="s">
+        <v>134</v>
+      </c>
+      <c r="E91">
+        <v>51</v>
+      </c>
+      <c r="F91" t="s">
+        <v>132</v>
+      </c>
+      <c r="G91" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2493</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>64</v>
+      </c>
+      <c r="D92" t="s">
+        <v>50</v>
+      </c>
+      <c r="E92">
+        <v>52</v>
+      </c>
+      <c r="F92" t="s">
+        <v>135</v>
+      </c>
+      <c r="G92" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2495</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>413</v>
+      </c>
+      <c r="D93" t="s">
+        <v>90</v>
+      </c>
+      <c r="E93">
+        <v>52</v>
+      </c>
+      <c r="F93" t="s">
+        <v>135</v>
+      </c>
+      <c r="G93" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2496</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>479</v>
+      </c>
+      <c r="D94" t="s">
+        <v>123</v>
+      </c>
+      <c r="E94">
+        <v>52</v>
+      </c>
+      <c r="F94" t="s">
+        <v>135</v>
+      </c>
+      <c r="G94" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>2513</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>41</v>
+      </c>
+      <c r="D95" t="s">
+        <v>137</v>
+      </c>
+      <c r="E95">
+        <v>53</v>
+      </c>
+      <c r="F95" t="s">
+        <v>138</v>
+      </c>
+      <c r="G95" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>2514</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>217</v>
+      </c>
+      <c r="D96" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96">
+        <v>53</v>
+      </c>
+      <c r="F96" t="s">
+        <v>138</v>
+      </c>
+      <c r="G96" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>2521</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>479</v>
+      </c>
+      <c r="D97" t="s">
+        <v>123</v>
+      </c>
+      <c r="E97">
+        <v>53</v>
+      </c>
+      <c r="F97" t="s">
+        <v>138</v>
+      </c>
+      <c r="G97" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2527</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>386</v>
+      </c>
+      <c r="D98" t="s">
+        <v>20</v>
+      </c>
+      <c r="E98">
+        <v>53</v>
+      </c>
+      <c r="F98" t="s">
+        <v>138</v>
+      </c>
+      <c r="G98" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>2574</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>1122</v>
+      </c>
+      <c r="D99" t="s">
+        <v>140</v>
+      </c>
+      <c r="E99">
+        <v>56</v>
+      </c>
+      <c r="F99" t="s">
+        <v>141</v>
+      </c>
+      <c r="G99" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2595</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>410</v>
+      </c>
+      <c r="D100" t="s">
+        <v>143</v>
+      </c>
+      <c r="E100">
+        <v>59</v>
+      </c>
+      <c r="F100" t="s">
+        <v>144</v>
+      </c>
+      <c r="G100" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2682</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>479</v>
+      </c>
+      <c r="D101" t="s">
+        <v>123</v>
+      </c>
+      <c r="E101">
+        <v>65</v>
+      </c>
+      <c r="F101" t="s">
+        <v>146</v>
+      </c>
+      <c r="G101" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2684</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>110</v>
+      </c>
+      <c r="D102" t="s">
+        <v>148</v>
+      </c>
+      <c r="E102">
+        <v>65</v>
+      </c>
+      <c r="F102" t="s">
+        <v>146</v>
+      </c>
+      <c r="G102" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2693</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>161</v>
+      </c>
+      <c r="D103" t="s">
+        <v>149</v>
+      </c>
+      <c r="E103">
+        <v>66</v>
+      </c>
+      <c r="F103" t="s">
+        <v>150</v>
+      </c>
+      <c r="G103" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2696</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>158</v>
+      </c>
+      <c r="D104" t="s">
+        <v>43</v>
+      </c>
+      <c r="E104">
+        <v>66</v>
+      </c>
+      <c r="F104" t="s">
+        <v>150</v>
+      </c>
+      <c r="G104" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2704</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>259</v>
+      </c>
+      <c r="D105" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105">
+        <v>66</v>
+      </c>
+      <c r="F105" t="s">
+        <v>150</v>
+      </c>
+      <c r="G105" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2706</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>248</v>
+      </c>
+      <c r="D106" t="s">
+        <v>152</v>
+      </c>
+      <c r="E106">
+        <v>66</v>
+      </c>
+      <c r="F106" t="s">
+        <v>150</v>
+      </c>
+      <c r="G106" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>2747</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>386</v>
+      </c>
+      <c r="D107" t="s">
+        <v>20</v>
+      </c>
+      <c r="E107">
+        <v>69</v>
+      </c>
+      <c r="F107" t="s">
+        <v>153</v>
+      </c>
+      <c r="G107" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2770</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>453</v>
+      </c>
+      <c r="D108" t="s">
+        <v>116</v>
+      </c>
+      <c r="E108">
+        <v>71</v>
+      </c>
+      <c r="F108" t="s">
+        <v>155</v>
+      </c>
+      <c r="G108" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>2787</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>207</v>
+      </c>
+      <c r="D109" t="s">
+        <v>157</v>
+      </c>
+      <c r="E109">
+        <v>73</v>
+      </c>
+      <c r="F109" t="s">
+        <v>158</v>
+      </c>
+      <c r="G109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>2800</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>167</v>
+      </c>
+      <c r="D110" t="s">
+        <v>30</v>
+      </c>
+      <c r="E110">
+        <v>74</v>
+      </c>
+      <c r="F110" t="s">
+        <v>155</v>
+      </c>
+      <c r="G110" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>2803</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>43</v>
+      </c>
+      <c r="D111" t="s">
+        <v>96</v>
+      </c>
+      <c r="E111">
+        <v>74</v>
+      </c>
+      <c r="F111" t="s">
+        <v>155</v>
+      </c>
+      <c r="G111" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>2805</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>151</v>
+      </c>
+      <c r="D112" t="s">
+        <v>125</v>
+      </c>
+      <c r="E112">
+        <v>75</v>
+      </c>
+      <c r="F112" t="s">
+        <v>160</v>
+      </c>
+      <c r="G112" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>2806</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>429</v>
+      </c>
+      <c r="D113" t="s">
+        <v>103</v>
+      </c>
+      <c r="E113">
+        <v>75</v>
+      </c>
+      <c r="F113" t="s">
+        <v>160</v>
+      </c>
+      <c r="G113" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>2825</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>479</v>
+      </c>
+      <c r="D114" t="s">
+        <v>123</v>
+      </c>
+      <c r="E114">
+        <v>76</v>
+      </c>
+      <c r="F114" t="s">
+        <v>162</v>
+      </c>
+      <c r="G114" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2826</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>429</v>
+      </c>
+      <c r="D115" t="s">
+        <v>103</v>
+      </c>
+      <c r="E115">
+        <v>76</v>
+      </c>
+      <c r="F115" t="s">
+        <v>162</v>
+      </c>
+      <c r="G115" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>2829</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>413</v>
+      </c>
+      <c r="D116" t="s">
+        <v>90</v>
+      </c>
+      <c r="E116">
+        <v>76</v>
+      </c>
+      <c r="F116" t="s">
+        <v>162</v>
+      </c>
+      <c r="G116" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>2830</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>1045</v>
+      </c>
+      <c r="D117" t="s">
+        <v>31</v>
+      </c>
+      <c r="E117">
+        <v>76</v>
+      </c>
+      <c r="F117" t="s">
+        <v>162</v>
+      </c>
+      <c r="G117" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>2831</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>212</v>
+      </c>
+      <c r="D118" t="s">
+        <v>164</v>
+      </c>
+      <c r="E118">
+        <v>76</v>
+      </c>
+      <c r="F118" t="s">
+        <v>162</v>
+      </c>
+      <c r="G118" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>2850</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>79</v>
+      </c>
+      <c r="D119" t="s">
+        <v>165</v>
+      </c>
+      <c r="E119">
+        <v>78</v>
+      </c>
+      <c r="F119" t="s">
+        <v>166</v>
+      </c>
+      <c r="G119" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>2869</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>248</v>
+      </c>
+      <c r="D120" t="s">
+        <v>152</v>
+      </c>
+      <c r="E120">
+        <v>81</v>
+      </c>
+      <c r="F120" t="s">
+        <v>168</v>
+      </c>
+      <c r="G120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>2871</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>174</v>
+      </c>
+      <c r="D121" t="s">
+        <v>169</v>
+      </c>
+      <c r="E121">
+        <v>81</v>
+      </c>
+      <c r="F121" t="s">
+        <v>168</v>
+      </c>
+      <c r="G121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>2872</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>178</v>
+      </c>
+      <c r="D122" t="s">
+        <v>170</v>
+      </c>
+      <c r="E122">
+        <v>81</v>
+      </c>
+      <c r="F122" t="s">
+        <v>168</v>
+      </c>
+      <c r="G122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>2883</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>480</v>
+      </c>
+      <c r="D123" t="s">
+        <v>102</v>
+      </c>
+      <c r="E123">
+        <v>83</v>
+      </c>
+      <c r="F123" t="s">
+        <v>171</v>
+      </c>
+      <c r="G123" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>2886</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>64</v>
+      </c>
+      <c r="D124" t="s">
+        <v>50</v>
+      </c>
+      <c r="E124">
+        <v>83</v>
+      </c>
+      <c r="F124" t="s">
+        <v>171</v>
+      </c>
+      <c r="G124" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>2890</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125">
+        <v>245</v>
+      </c>
+      <c r="D125" t="s">
+        <v>60</v>
+      </c>
+      <c r="E125">
+        <v>84</v>
+      </c>
+      <c r="F125" t="s">
+        <v>172</v>
+      </c>
+      <c r="G125" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>2905</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
+        <v>155</v>
+      </c>
+      <c r="D126" t="s">
+        <v>174</v>
+      </c>
+      <c r="E126">
+        <v>86</v>
+      </c>
+      <c r="F126" t="s">
+        <v>175</v>
+      </c>
+      <c r="G126" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>2906</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127">
+        <v>109</v>
+      </c>
+      <c r="D127" t="s">
+        <v>177</v>
+      </c>
+      <c r="E127">
+        <v>86</v>
+      </c>
+      <c r="F127" t="s">
+        <v>175</v>
+      </c>
+      <c r="G127" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>2907</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <v>46</v>
+      </c>
+      <c r="D128" t="s">
+        <v>178</v>
+      </c>
+      <c r="E128">
+        <v>86</v>
+      </c>
+      <c r="F128" t="s">
+        <v>175</v>
+      </c>
+      <c r="G128" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>2908</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129">
+        <v>479</v>
+      </c>
+      <c r="D129" t="s">
+        <v>123</v>
+      </c>
+      <c r="E129">
+        <v>86</v>
+      </c>
+      <c r="F129" t="s">
+        <v>175</v>
+      </c>
+      <c r="G129" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>2923</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>248</v>
+      </c>
+      <c r="D130" t="s">
+        <v>152</v>
+      </c>
+      <c r="E130">
+        <v>88</v>
+      </c>
+      <c r="F130" t="s">
+        <v>179</v>
+      </c>
+      <c r="G130" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>2946</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <v>260</v>
+      </c>
+      <c r="D131" t="s">
+        <v>110</v>
+      </c>
+      <c r="E131">
+        <v>90</v>
+      </c>
+      <c r="F131" t="s">
+        <v>181</v>
+      </c>
+      <c r="G131" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>2947</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>245</v>
+      </c>
+      <c r="D132" t="s">
+        <v>60</v>
+      </c>
+      <c r="E132">
+        <v>90</v>
+      </c>
+      <c r="F132" t="s">
+        <v>181</v>
+      </c>
+      <c r="G132" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>2949</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <v>429</v>
+      </c>
+      <c r="D133" t="s">
+        <v>103</v>
+      </c>
+      <c r="E133">
+        <v>90</v>
+      </c>
+      <c r="F133" t="s">
+        <v>181</v>
+      </c>
+      <c r="G133" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>2991</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>328</v>
+      </c>
+      <c r="D134" t="s">
+        <v>182</v>
+      </c>
+      <c r="E134">
+        <v>95</v>
+      </c>
+      <c r="F134" t="s">
+        <v>183</v>
+      </c>
+      <c r="G134" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>3056</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135">
+        <v>258</v>
+      </c>
+      <c r="D135" t="s">
+        <v>185</v>
+      </c>
+      <c r="E135">
+        <v>98</v>
+      </c>
+      <c r="F135" t="s">
+        <v>186</v>
+      </c>
+      <c r="G135" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>3059</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <v>417</v>
+      </c>
+      <c r="D136" t="s">
+        <v>20</v>
+      </c>
+      <c r="E136">
+        <v>98</v>
+      </c>
+      <c r="F136" t="s">
+        <v>186</v>
+      </c>
+      <c r="G136" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>3080</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>159</v>
+      </c>
+      <c r="D137" t="s">
+        <v>188</v>
+      </c>
+      <c r="E137">
+        <v>100</v>
+      </c>
+      <c r="F137" t="s">
+        <v>189</v>
+      </c>
+      <c r="G137" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>3111</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <v>127</v>
+      </c>
+      <c r="D138" t="s">
+        <v>115</v>
+      </c>
+      <c r="E138">
+        <v>102</v>
+      </c>
+      <c r="F138" t="s">
+        <v>191</v>
+      </c>
+      <c r="G138" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>3112</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139">
+        <v>460</v>
+      </c>
+      <c r="D139" t="s">
+        <v>20</v>
+      </c>
+      <c r="E139">
+        <v>102</v>
+      </c>
+      <c r="F139" t="s">
+        <v>191</v>
+      </c>
+      <c r="G139" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>3113</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>469</v>
+      </c>
+      <c r="D140" t="s">
+        <v>193</v>
+      </c>
+      <c r="E140">
+        <v>102</v>
+      </c>
+      <c r="F140" t="s">
+        <v>191</v>
+      </c>
+      <c r="G140" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>3129</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>245</v>
+      </c>
+      <c r="D141" t="s">
+        <v>60</v>
+      </c>
+      <c r="E141">
+        <v>103</v>
+      </c>
+      <c r="F141" t="s">
+        <v>194</v>
+      </c>
+      <c r="G141" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>3130</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>89</v>
+      </c>
+      <c r="D142" t="s">
+        <v>196</v>
+      </c>
+      <c r="E142">
+        <v>103</v>
+      </c>
+      <c r="F142" t="s">
+        <v>194</v>
+      </c>
+      <c r="G142" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>3144</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>157</v>
+      </c>
+      <c r="D143" t="s">
+        <v>113</v>
+      </c>
+      <c r="E143">
+        <v>104</v>
+      </c>
+      <c r="F143" t="s">
+        <v>197</v>
+      </c>
+      <c r="G143" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>3145</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <v>260</v>
+      </c>
+      <c r="D144" t="s">
+        <v>110</v>
+      </c>
+      <c r="E144">
+        <v>104</v>
+      </c>
+      <c r="F144" t="s">
+        <v>197</v>
+      </c>
+      <c r="G144" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>3149</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145">
+        <v>124</v>
+      </c>
+      <c r="D145" t="s">
+        <v>119</v>
+      </c>
+      <c r="E145">
+        <v>105</v>
+      </c>
+      <c r="F145" t="s">
+        <v>199</v>
+      </c>
+      <c r="G145" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>3172</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>449</v>
+      </c>
+      <c r="D146" t="s">
+        <v>201</v>
+      </c>
+      <c r="E146">
+        <v>106</v>
+      </c>
+      <c r="F146" t="s">
+        <v>202</v>
+      </c>
+      <c r="G146" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>3173</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>449</v>
+      </c>
+      <c r="D147" t="s">
+        <v>201</v>
+      </c>
+      <c r="E147">
+        <v>106</v>
+      </c>
+      <c r="F147" t="s">
+        <v>202</v>
+      </c>
+      <c r="G147" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>3181</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>139</v>
+      </c>
+      <c r="D148" t="s">
+        <v>29</v>
+      </c>
+      <c r="E148">
+        <v>107</v>
+      </c>
+      <c r="F148" t="s">
+        <v>204</v>
+      </c>
+      <c r="G148" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>3183</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <v>264</v>
+      </c>
+      <c r="D149" t="s">
+        <v>26</v>
+      </c>
+      <c r="E149">
+        <v>107</v>
+      </c>
+      <c r="F149" t="s">
+        <v>204</v>
+      </c>
+      <c r="G149" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>3184</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150">
+        <v>264</v>
+      </c>
+      <c r="D150" t="s">
+        <v>26</v>
+      </c>
+      <c r="E150">
+        <v>107</v>
+      </c>
+      <c r="F150" t="s">
+        <v>204</v>
+      </c>
+      <c r="G150" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>3194</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151">
+        <v>62</v>
+      </c>
+      <c r="D151" t="s">
+        <v>205</v>
+      </c>
+      <c r="E151">
+        <v>108</v>
+      </c>
+      <c r="F151" t="s">
+        <v>206</v>
+      </c>
+      <c r="G151" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>3197</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>98</v>
+      </c>
+      <c r="D152" t="s">
+        <v>9</v>
+      </c>
+      <c r="E152">
+        <v>108</v>
+      </c>
+      <c r="F152" t="s">
+        <v>206</v>
+      </c>
+      <c r="G152" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>3198</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153">
+        <v>487</v>
+      </c>
+      <c r="D153" t="s">
+        <v>208</v>
+      </c>
+      <c r="E153">
+        <v>108</v>
+      </c>
+      <c r="F153" t="s">
+        <v>206</v>
+      </c>
+      <c r="G153" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>3199</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <v>227</v>
+      </c>
+      <c r="D154" t="s">
+        <v>53</v>
+      </c>
+      <c r="E154">
+        <v>108</v>
+      </c>
+      <c r="F154" t="s">
+        <v>206</v>
+      </c>
+      <c r="G154" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>3227</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155">
+        <v>163</v>
+      </c>
+      <c r="D155" t="s">
+        <v>18</v>
+      </c>
+      <c r="E155">
+        <v>111</v>
+      </c>
+      <c r="F155" t="s">
+        <v>209</v>
+      </c>
+      <c r="G155" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>3229</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>157</v>
+      </c>
+      <c r="D156" t="s">
+        <v>113</v>
+      </c>
+      <c r="E156">
+        <v>111</v>
+      </c>
+      <c r="F156" t="s">
+        <v>209</v>
+      </c>
+      <c r="G156" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>3230</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>124</v>
+      </c>
+      <c r="D157" t="s">
+        <v>119</v>
+      </c>
+      <c r="E157">
+        <v>111</v>
+      </c>
+      <c r="F157" t="s">
+        <v>209</v>
+      </c>
+      <c r="G157" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>3249</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158">
+        <v>120</v>
+      </c>
+      <c r="D158" t="s">
+        <v>211</v>
+      </c>
+      <c r="E158">
+        <v>112</v>
+      </c>
+      <c r="F158" t="s">
+        <v>212</v>
+      </c>
+      <c r="G158" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>3260</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159">
+        <v>490</v>
+      </c>
+      <c r="D159" t="s">
+        <v>83</v>
+      </c>
+      <c r="E159">
+        <v>112</v>
+      </c>
+      <c r="F159" t="s">
+        <v>212</v>
+      </c>
+      <c r="G159" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>3305</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160">
+        <v>139</v>
+      </c>
+      <c r="D160" t="s">
+        <v>29</v>
+      </c>
+      <c r="E160">
+        <v>115</v>
+      </c>
+      <c r="F160" t="s">
+        <v>214</v>
+      </c>
+      <c r="G160" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>3318</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161">
+        <v>571</v>
+      </c>
+      <c r="D161" t="s">
+        <v>216</v>
+      </c>
+      <c r="E161">
+        <v>115</v>
+      </c>
+      <c r="F161" t="s">
+        <v>214</v>
+      </c>
+      <c r="G161" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>3320</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <v>497</v>
+      </c>
+      <c r="D162" t="s">
+        <v>217</v>
+      </c>
+      <c r="E162">
+        <v>115</v>
+      </c>
+      <c r="F162" t="s">
+        <v>214</v>
+      </c>
+      <c r="G162" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>3335</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+      <c r="C163">
+        <v>426</v>
+      </c>
+      <c r="D163" t="s">
+        <v>32</v>
+      </c>
+      <c r="E163">
+        <v>116</v>
+      </c>
+      <c r="F163" t="s">
+        <v>87</v>
+      </c>
+      <c r="G163" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>3336</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164">
+        <v>205</v>
+      </c>
+      <c r="D164" t="s">
+        <v>218</v>
+      </c>
+      <c r="E164">
+        <v>116</v>
+      </c>
+      <c r="F164" t="s">
+        <v>87</v>
+      </c>
+      <c r="G164" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>3348</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165">
+        <v>439</v>
+      </c>
+      <c r="D165" t="s">
+        <v>219</v>
+      </c>
+      <c r="E165">
+        <v>117</v>
+      </c>
+      <c r="F165" t="s">
+        <v>220</v>
+      </c>
+      <c r="G165" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>3349</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166">
+        <v>1027</v>
+      </c>
+      <c r="D166" t="s">
+        <v>33</v>
+      </c>
+      <c r="E166">
+        <v>117</v>
+      </c>
+      <c r="F166" t="s">
+        <v>220</v>
+      </c>
+      <c r="G166" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>3350</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167">
+        <v>487</v>
+      </c>
+      <c r="D167" t="s">
+        <v>208</v>
+      </c>
+      <c r="E167">
+        <v>117</v>
+      </c>
+      <c r="F167" t="s">
+        <v>220</v>
+      </c>
+      <c r="G167" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>3356</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168">
+        <v>571</v>
+      </c>
+      <c r="D168" t="s">
+        <v>216</v>
+      </c>
+      <c r="E168">
+        <v>118</v>
+      </c>
+      <c r="F168" t="s">
+        <v>222</v>
+      </c>
+      <c r="G168" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>3359</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+      <c r="C169">
+        <v>429</v>
+      </c>
+      <c r="D169" t="s">
+        <v>103</v>
+      </c>
+      <c r="E169">
+        <v>118</v>
+      </c>
+      <c r="F169" t="s">
+        <v>222</v>
+      </c>
+      <c r="G169" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>3362</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170">
+        <v>413</v>
+      </c>
+      <c r="D170" t="s">
+        <v>90</v>
+      </c>
+      <c r="E170">
+        <v>118</v>
+      </c>
+      <c r="F170" t="s">
+        <v>222</v>
+      </c>
+      <c r="G170" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>3366</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171">
+        <v>497</v>
+      </c>
+      <c r="D171" t="s">
+        <v>217</v>
+      </c>
+      <c r="E171">
+        <v>118</v>
+      </c>
+      <c r="F171" t="s">
+        <v>222</v>
+      </c>
+      <c r="G171" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>3367</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172">
+        <v>494</v>
+      </c>
+      <c r="D172" t="s">
+        <v>224</v>
+      </c>
+      <c r="E172">
+        <v>118</v>
+      </c>
+      <c r="F172" t="s">
+        <v>222</v>
+      </c>
+      <c r="G172" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>3382</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="C173">
+        <v>1109</v>
+      </c>
+      <c r="D173" t="s">
+        <v>225</v>
+      </c>
+      <c r="E173">
+        <v>119</v>
+      </c>
+      <c r="F173" t="s">
+        <v>226</v>
+      </c>
+      <c r="G173" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>3383</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174">
+        <v>497</v>
+      </c>
+      <c r="D174" t="s">
+        <v>217</v>
+      </c>
+      <c r="E174">
+        <v>119</v>
+      </c>
+      <c r="F174" t="s">
+        <v>226</v>
+      </c>
+      <c r="G174" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>3384</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+      <c r="C175">
+        <v>571</v>
+      </c>
+      <c r="D175" t="s">
+        <v>216</v>
+      </c>
+      <c r="E175">
+        <v>119</v>
+      </c>
+      <c r="F175" t="s">
+        <v>226</v>
+      </c>
+      <c r="G175" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>3420</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176">
+        <v>466</v>
+      </c>
+      <c r="D176" t="s">
+        <v>228</v>
+      </c>
+      <c r="E176">
+        <v>122</v>
+      </c>
+      <c r="F176">
+        <v>2</v>
+      </c>
+      <c r="G176" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>3421</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+      <c r="C177">
+        <v>466</v>
+      </c>
+      <c r="D177" t="s">
+        <v>228</v>
+      </c>
+      <c r="E177">
+        <v>122</v>
+      </c>
+      <c r="F177">
+        <v>2</v>
+      </c>
+      <c r="G177" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>3440</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178">
+        <v>511</v>
+      </c>
+      <c r="D178" t="s">
+        <v>66</v>
+      </c>
+      <c r="E178">
+        <v>123</v>
+      </c>
+      <c r="F178">
+        <v>3</v>
+      </c>
+      <c r="G178" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>3467</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="C179">
+        <v>511</v>
+      </c>
+      <c r="D179" t="s">
+        <v>66</v>
+      </c>
+      <c r="E179">
+        <v>124</v>
+      </c>
+      <c r="F179">
+        <v>4</v>
+      </c>
+      <c r="G179" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>3541</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180">
+        <v>488</v>
+      </c>
+      <c r="D180" t="s">
+        <v>230</v>
+      </c>
+      <c r="E180">
+        <v>131</v>
+      </c>
+      <c r="F180">
+        <v>6</v>
+      </c>
+      <c r="G180" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>3547</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181">
+        <v>458</v>
+      </c>
+      <c r="D181" t="s">
+        <v>231</v>
+      </c>
+      <c r="E181">
+        <v>131</v>
+      </c>
+      <c r="F181">
+        <v>6</v>
+      </c>
+      <c r="G181" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>3548</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182">
+        <v>458</v>
+      </c>
+      <c r="D182" t="s">
+        <v>231</v>
+      </c>
+      <c r="E182">
+        <v>131</v>
+      </c>
+      <c r="F182">
+        <v>6</v>
+      </c>
+      <c r="G182" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>3551</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="C183">
+        <v>43</v>
+      </c>
+      <c r="D183" t="s">
+        <v>96</v>
+      </c>
+      <c r="E183">
+        <v>131</v>
+      </c>
+      <c r="F183">
+        <v>6</v>
+      </c>
+      <c r="G183" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>3552</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184">
+        <v>43</v>
+      </c>
+      <c r="D184" t="s">
+        <v>96</v>
+      </c>
+      <c r="E184">
+        <v>131</v>
+      </c>
+      <c r="F184">
+        <v>6</v>
+      </c>
+      <c r="G184" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>3557</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185">
+        <v>248</v>
+      </c>
+      <c r="D185" t="s">
+        <v>152</v>
+      </c>
+      <c r="E185">
+        <v>131</v>
+      </c>
+      <c r="F185">
+        <v>6</v>
+      </c>
+      <c r="G185" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/ImporterCSV/test.xlsx
+++ b/ImporterCSV/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\ImplantationAndroid\ImporterCSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBFBB4E-91D0-4494-987F-E17F6CC140CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55E555B-8E0B-4C38-B44D-AA45BE34EAD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B654E125-5C88-42FE-A815-ACEF66A6EE9D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B654E125-5C88-42FE-A815-ACEF66A6EE9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -430,7 +430,7 @@
   <dimension ref="A1:G441"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G5" sqref="G5:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,19 +489,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>21314</v>
+        <v>25361</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2092</v>
+        <v>3111</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3">
-        <v>2768</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -512,19 +512,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>13214</v>
+        <v>25360</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>125</v>
+        <v>3110</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4">
-        <v>2454</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>

--- a/ImporterCSV/test.xlsx
+++ b/ImporterCSV/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\ImplantationAndroid\ImporterCSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55E555B-8E0B-4C38-B44D-AA45BE34EAD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E53FBCF-D5F6-4B75-855B-F4FE2C3630CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B654E125-5C88-42FE-A815-ACEF66A6EE9D}"/>
   </bookViews>
@@ -430,7 +430,7 @@
   <dimension ref="A1:G441"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ImporterCSV/test.xlsx
+++ b/ImporterCSV/test.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\ImplantationAndroid\ImporterCSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E53FBCF-D5F6-4B75-855B-F4FE2C3630CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368F8773-2C31-4143-A65E-F57558C843DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B654E125-5C88-42FE-A815-ACEF66A6EE9D}"/>
+    <workbookView xWindow="30210" yWindow="2385" windowWidth="21600" windowHeight="11385" xr2:uid="{B654E125-5C88-42FE-A815-ACEF66A6EE9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -430,7 +431,7 @@
   <dimension ref="A1:G441"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +502,7 @@
         <v>11</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -524,7 +525,7 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>

--- a/ImporterCSV/test.xlsx
+++ b/ImporterCSV/test.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\ImplantationAndroid\ImporterCSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368F8773-2C31-4143-A65E-F57558C843DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3C1FD2-77CD-487F-9601-DA7C0F9FF28C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30210" yWindow="2385" windowWidth="21600" windowHeight="11385" xr2:uid="{B654E125-5C88-42FE-A815-ACEF66A6EE9D}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B654E125-5C88-42FE-A815-ACEF66A6EE9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>Prénom</t>
   </si>
@@ -431,7 +430,7 @@
   <dimension ref="A1:G441"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,6 +533,75 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>25359</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>3110</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>25358</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>3110</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>25357</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>3110</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="432" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F432" s="1"/>
     </row>

--- a/ImporterCSV/test.xlsx
+++ b/ImporterCSV/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\ImplantationAndroid\ImporterCSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3C1FD2-77CD-487F-9601-DA7C0F9FF28C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0AF949-CEBC-4E5E-B5C2-E2231FE93EE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B654E125-5C88-42FE-A815-ACEF66A6EE9D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="63">
   <si>
     <t>Prénom</t>
   </si>
@@ -53,28 +53,175 @@
     <t>Concession</t>
   </si>
   <si>
-    <t>Gabriel</t>
-  </si>
-  <si>
-    <t>Desrochers</t>
-  </si>
-  <si>
-    <t>AGECTR</t>
-  </si>
-  <si>
-    <t>Lancelot ou le chevalier de la charrette</t>
-  </si>
-  <si>
-    <t>Hosanna suivi de La Duchesse de Langeais</t>
-  </si>
-  <si>
-    <t>Mod`ele mathématique pour les techniques industrielles</t>
-  </si>
-  <si>
-    <t>Lanteigne</t>
-  </si>
-  <si>
-    <t>Michelle</t>
+    <t>L'étranger</t>
+  </si>
+  <si>
+    <t>Bourque</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Communication et représentation commerciale 3e éd.</t>
+  </si>
+  <si>
+    <t>Trudel</t>
+  </si>
+  <si>
+    <t>Joshua</t>
+  </si>
+  <si>
+    <t>Manuel d'épict`ete</t>
+  </si>
+  <si>
+    <t>Lefebvre</t>
+  </si>
+  <si>
+    <t>Laurie-Ann</t>
+  </si>
+  <si>
+    <t>Les liaisons dangeureuses</t>
+  </si>
+  <si>
+    <t>Odyssée</t>
+  </si>
+  <si>
+    <t>Ph`edre</t>
+  </si>
+  <si>
+    <t>Déry</t>
+  </si>
+  <si>
+    <t>Mélissa</t>
+  </si>
+  <si>
+    <t>Manon des sources</t>
+  </si>
+  <si>
+    <t>Toupin</t>
+  </si>
+  <si>
+    <t>Cindy</t>
+  </si>
+  <si>
+    <t>Cyrano de Bergerac</t>
+  </si>
+  <si>
+    <t>Tremblay</t>
+  </si>
+  <si>
+    <t>Alexanne</t>
+  </si>
+  <si>
+    <t>Balzac et la Petite Tailleuse chinoise</t>
+  </si>
+  <si>
+    <t>Germinal</t>
+  </si>
+  <si>
+    <t>Les québécois et l'anglais</t>
+  </si>
+  <si>
+    <t>Jean</t>
+  </si>
+  <si>
+    <t>Marie-Soleil</t>
+  </si>
+  <si>
+    <t>Le bonheur, désespérément</t>
+  </si>
+  <si>
+    <t>Frankenstein ou le prométhée moderne</t>
+  </si>
+  <si>
+    <t>La télévision `a l'`ere d'internet</t>
+  </si>
+  <si>
+    <t>Marie Calumet</t>
+  </si>
+  <si>
+    <t>Les précieuses ridicules</t>
+  </si>
+  <si>
+    <t>Dictionnaire illustré des termes de médecine</t>
+  </si>
+  <si>
+    <t>Massicotte</t>
+  </si>
+  <si>
+    <t>Carolann</t>
+  </si>
+  <si>
+    <t>La sociologie</t>
+  </si>
+  <si>
+    <t>Duguay</t>
+  </si>
+  <si>
+    <t>Sophie</t>
+  </si>
+  <si>
+    <t>Le marketing en action</t>
+  </si>
+  <si>
+    <t>De la providence</t>
+  </si>
+  <si>
+    <t>Renaud</t>
+  </si>
+  <si>
+    <t>Jany</t>
+  </si>
+  <si>
+    <t>Épicure Lettres, maximes, sentences</t>
+  </si>
+  <si>
+    <t>De la démocratie en Amérique</t>
+  </si>
+  <si>
+    <t>Éthique</t>
+  </si>
+  <si>
+    <t>Relations interculturelles</t>
+  </si>
+  <si>
+    <t>Dieu et nous seuls le pouvons</t>
+  </si>
+  <si>
+    <t>Caya</t>
+  </si>
+  <si>
+    <t>Marc-André</t>
+  </si>
+  <si>
+    <t>Le journal d'un homme de trop</t>
+  </si>
+  <si>
+    <t>L'île des esclaves</t>
+  </si>
+  <si>
+    <t>LEs po`etes symbolistes</t>
+  </si>
+  <si>
+    <t>Pepin</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Encyclopédie ou dictionnaire raisonné des sciences, des arts et des métiers</t>
+  </si>
+  <si>
+    <t>Soie</t>
+  </si>
+  <si>
+    <t>Prosper Mérimée Carmen</t>
+  </si>
+  <si>
+    <t>St-Arneault</t>
+  </si>
+  <si>
+    <t>Joanny</t>
   </si>
 </sst>
 </file>
@@ -430,7 +577,7 @@
   <dimension ref="A1:G441"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,22 +613,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>5578</v>
+        <v>59</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>302</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>301</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -489,117 +636,692 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>25361</v>
+        <v>186</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3111</v>
+        <v>529</v>
       </c>
       <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
         <v>11</v>
-      </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>25360</v>
+        <v>279</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>3110</v>
+        <v>217</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>25359</v>
+        <v>280</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>3110</v>
+        <v>163</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>25358</v>
+        <v>289</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>3110</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>25357</v>
+        <v>364</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>3110</v>
+        <v>417</v>
       </c>
       <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>395</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>535</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1504</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>394</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1505</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>139</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1506</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>167</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1602</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1045</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12">
         <v>9</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1603</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>259</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1605</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>426</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1608</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1027</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1609</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1052</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1611</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>69</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1814</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>201</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1830</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>289</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19">
         <v>12</v>
       </c>
-      <c r="G7" t="s">
-        <v>6</v>
+      <c r="F19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1841</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>353</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1865</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>158</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1868</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>216</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1869</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>175</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1870</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>150</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1871</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1082</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1874</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>64</v>
+      </c>
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26">
+        <v>15</v>
+      </c>
+      <c r="F26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1875</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>227</v>
+      </c>
+      <c r="D27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27">
+        <v>15</v>
+      </c>
+      <c r="F27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1880</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>172</v>
+      </c>
+      <c r="D28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28">
+        <v>15</v>
+      </c>
+      <c r="F28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1932</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>348</v>
+      </c>
+      <c r="D29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29">
+        <v>19</v>
+      </c>
+      <c r="F29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1933</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>97</v>
+      </c>
+      <c r="D30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30">
+        <v>19</v>
+      </c>
+      <c r="F30" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1934</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>141</v>
+      </c>
+      <c r="D31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1956</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>245</v>
+      </c>
+      <c r="D32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32">
+        <v>21</v>
+      </c>
+      <c r="F32" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="432" spans="6:6" x14ac:dyDescent="0.25">

--- a/ImporterCSV/test.xlsx
+++ b/ImporterCSV/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\ImplantationAndroid\ImporterCSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3919B42E-908B-43D8-8D5C-6AECEE672765}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607C0FC0-D8E5-497B-9EA3-00E779510E36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B654E125-5C88-42FE-A815-ACEF66A6EE9D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B654E125-5C88-42FE-A815-ACEF66A6EE9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1719,8 +1719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A958F0B5-5130-4F3A-951C-5BC123284EF3}">
   <dimension ref="A1:G441"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G438"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2475,7 +2475,7 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>14</v>
+        <v>1104</v>
       </c>
       <c r="D33" t="s">
         <v>63</v>
